--- a/таблица слов — c1.xlsx
+++ b/таблица слов — c1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="142">
   <si>
     <t>категория</t>
   </si>
@@ -193,13 +193,301 @@
   </si>
   <si>
     <t>C1</t>
+  </si>
+  <si>
+    <t>веревка</t>
+  </si>
+  <si>
+    <t>Strick </t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>га́снуть</t>
+  </si>
+  <si>
+    <t>erlöschen</t>
+  </si>
+  <si>
+    <t>erlischt</t>
+  </si>
+  <si>
+    <t>erloschen</t>
+  </si>
+  <si>
+    <t>reißen</t>
+  </si>
+  <si>
+    <t>reißt</t>
+  </si>
+  <si>
+    <t>rissen</t>
+  </si>
+  <si>
+    <t>gerissen</t>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD91D3E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>aufen</t>
+    </r>
+  </si>
+  <si>
+    <t>рвать</t>
+  </si>
+  <si>
+    <t>пьянствовать</t>
+  </si>
+  <si>
+    <t>säuft</t>
+  </si>
+  <si>
+    <t>soffen</t>
+  </si>
+  <si>
+    <t>gesoffen</t>
+  </si>
+  <si>
+    <t>schmelzen</t>
+  </si>
+  <si>
+    <t>плавить</t>
+  </si>
+  <si>
+    <t>schmilzt</t>
+  </si>
+  <si>
+    <t>schmolzen</t>
+  </si>
+  <si>
+    <t>geschmolzen</t>
+  </si>
+  <si>
+    <t>stechen</t>
+  </si>
+  <si>
+    <t>жалить</t>
+  </si>
+  <si>
+    <t>sticht</t>
+  </si>
+  <si>
+    <t>stachen</t>
+  </si>
+  <si>
+    <t>gestochen</t>
+  </si>
+  <si>
+    <t>падеж</t>
+  </si>
+  <si>
+    <t>kasus</t>
+  </si>
+  <si>
+    <t>отчет</t>
+  </si>
+  <si>
+    <t>Bericht </t>
+  </si>
+  <si>
+    <t>возвращать</t>
+  </si>
+  <si>
+    <t>abgeben </t>
+  </si>
+  <si>
+    <r>
+      <t>g</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD91D3E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>ibt</t>
+    </r>
+  </si>
+  <si>
+    <t>gaben</t>
+  </si>
+  <si>
+    <t>abgegeben</t>
+  </si>
+  <si>
+    <t>придумывать</t>
+  </si>
+  <si>
+    <t>ausdenken</t>
+  </si>
+  <si>
+    <t>ausgedacht</t>
+  </si>
+  <si>
+    <t> aus</t>
+  </si>
+  <si>
+    <t>ab</t>
+  </si>
+  <si>
+    <t>прощание</t>
+  </si>
+  <si>
+    <t>Abschied</t>
+  </si>
+  <si>
+    <t>анализировать</t>
+  </si>
+  <si>
+    <t>auswerten</t>
+  </si>
+  <si>
+    <t>denkt</t>
+  </si>
+  <si>
+    <t>dachten</t>
+  </si>
+  <si>
+    <t>wertet</t>
+  </si>
+  <si>
+    <t>werteten</t>
+  </si>
+  <si>
+    <t>ausgewertet</t>
+  </si>
+  <si>
+    <t>сме́та затра́т</t>
+  </si>
+  <si>
+    <t>Kostenvoranschlag</t>
+  </si>
+  <si>
+    <t>удовлетвори́ть</t>
+  </si>
+  <si>
+    <t>erfüllen </t>
+  </si>
+  <si>
+    <t>erfüllt</t>
+  </si>
+  <si>
+    <t>erfüllten</t>
+  </si>
+  <si>
+    <t>соблюда́ть</t>
+  </si>
+  <si>
+    <t>einhalten</t>
+  </si>
+  <si>
+    <t>hält </t>
+  </si>
+  <si>
+    <t>hielten</t>
+  </si>
+  <si>
+    <t>eingehalten</t>
+  </si>
+  <si>
+    <t>ein</t>
+  </si>
+  <si>
+    <t>hervorragend</t>
+  </si>
+  <si>
+    <t>выдаю́щийся</t>
+  </si>
+  <si>
+    <t>передава́ть</t>
+  </si>
+  <si>
+    <t>weitergeben </t>
+  </si>
+  <si>
+    <t>weiter</t>
+  </si>
+  <si>
+    <t>weitergegeben</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  an</t>
+  </si>
+  <si>
+    <t>(etw.Akk. an jmdn.) weitergeben</t>
+  </si>
+  <si>
+    <t>оси́лить</t>
+  </si>
+  <si>
+    <t>überwinden</t>
+  </si>
+  <si>
+    <t>überwindet</t>
+  </si>
+  <si>
+    <t>überwanden</t>
+  </si>
+  <si>
+    <t>überwunden</t>
+  </si>
+  <si>
+    <t>(etw.Akk.) überwinden </t>
+  </si>
+  <si>
+    <t>соде́йствовать</t>
+  </si>
+  <si>
+    <t>fördern</t>
+  </si>
+  <si>
+    <t> fördert</t>
+  </si>
+  <si>
+    <r>
+      <t>förder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD91D3E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>ten</t>
+    </r>
+  </si>
+  <si>
+    <t>gefördert</t>
+  </si>
+  <si>
+    <t>(etw.Akk.) fördern</t>
+  </si>
+  <si>
+    <t>существу́ющий</t>
+  </si>
+  <si>
+    <t>bestehend</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="9.5"/>
       <color theme="1"/>
@@ -284,6 +572,13 @@
       <sz val="14"/>
       <color rgb="FF6E6E6E"/>
       <name val="Icons"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFD91D3E"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="7">
@@ -445,14 +740,14 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -821,9 +1116,9 @@
   <dimension ref="A1:U4295"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5" defaultRowHeight="12.75"/>
@@ -835,9 +1130,9 @@
     <col min="5" max="5" width="12.5" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="10.375" style="6" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="4.125" customWidth="1"/>
+    <col min="8" max="8" width="11.375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.125" customWidth="1"/>
-    <col min="10" max="10" width="17.75" customWidth="1"/>
+    <col min="10" max="10" width="20" customWidth="1"/>
     <col min="11" max="11" width="11.625" customWidth="1"/>
     <col min="12" max="12" width="7.125" customWidth="1"/>
     <col min="13" max="13" width="3.625" customWidth="1"/>
@@ -849,8 +1144,8 @@
     <col min="21" max="21" width="12.5" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:20" s="1" customFormat="1" ht="62.25" customHeight="1">
+      <c r="A1" s="23" t="s">
         <v>57</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -912,83 +1207,609 @@
       </c>
     </row>
     <row r="2" spans="1:20" ht="20.25" customHeight="1">
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
+      <c r="B2" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" t="s">
+        <v>60</v>
+      </c>
       <c r="J2" s="2"/>
+      <c r="K2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="3" spans="1:20" ht="20.25" customHeight="1">
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
+      <c r="B3" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" t="s">
+        <v>64</v>
+      </c>
       <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:20" ht="20.25" customHeight="1"/>
-    <row r="5" spans="1:20" ht="20.25" customHeight="1"/>
-    <row r="6" spans="1:20" ht="20.25" customHeight="1"/>
-    <row r="7" spans="1:20" ht="20.25" customHeight="1"/>
+      <c r="K3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="20.25" customHeight="1">
+      <c r="B4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="20.25" customHeight="1">
+      <c r="B5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="20.25" customHeight="1">
+      <c r="B6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" t="s">
+        <v>78</v>
+      </c>
+      <c r="H6" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N6" t="s">
+        <v>35</v>
+      </c>
+      <c r="O6" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="20.25" customHeight="1">
+      <c r="B7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" t="s">
+        <v>27</v>
+      </c>
+      <c r="N7" t="s">
+        <v>35</v>
+      </c>
+      <c r="O7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>34</v>
+      </c>
+    </row>
     <row r="8" spans="1:20" ht="20.25" customHeight="1">
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:20" ht="20.25" customHeight="1"/>
-    <row r="10" spans="1:20" ht="20.25" customHeight="1"/>
+      <c r="B8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" t="s">
+        <v>86</v>
+      </c>
+      <c r="K8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" t="s">
+        <v>36</v>
+      </c>
+      <c r="M8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="20.25" customHeight="1">
+      <c r="B9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" t="s">
+        <v>60</v>
+      </c>
+      <c r="K9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" t="s">
+        <v>36</v>
+      </c>
+      <c r="M9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="20.25" customHeight="1">
+      <c r="B10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G10" t="s">
+        <v>92</v>
+      </c>
+      <c r="H10" t="s">
+        <v>93</v>
+      </c>
+      <c r="K10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L10" t="s">
+        <v>27</v>
+      </c>
+      <c r="N10" t="s">
+        <v>35</v>
+      </c>
+      <c r="O10" t="s">
+        <v>34</v>
+      </c>
+      <c r="P10" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>34</v>
+      </c>
+    </row>
     <row r="11" spans="1:20" ht="20.25" customHeight="1">
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="1:20" ht="20.25" customHeight="1"/>
-    <row r="13" spans="1:20" ht="20.25" customHeight="1"/>
-    <row r="14" spans="1:20" ht="20.25" customHeight="1"/>
-    <row r="15" spans="1:20" ht="20.25" customHeight="1"/>
+      <c r="B11" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" t="s">
+        <v>95</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="G11" t="s">
+        <v>104</v>
+      </c>
+      <c r="H11" t="s">
+        <v>96</v>
+      </c>
+      <c r="K11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L11" t="s">
+        <v>27</v>
+      </c>
+      <c r="N11" t="s">
+        <v>35</v>
+      </c>
+      <c r="O11" t="s">
+        <v>51</v>
+      </c>
+      <c r="P11" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="20.25" customHeight="1">
+      <c r="B12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" t="s">
+        <v>60</v>
+      </c>
+      <c r="K12" t="s">
+        <v>16</v>
+      </c>
+      <c r="L12" t="s">
+        <v>36</v>
+      </c>
+      <c r="M12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="20.25" customHeight="1">
+      <c r="B13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" t="s">
+        <v>102</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G13" t="s">
+        <v>106</v>
+      </c>
+      <c r="H13" t="s">
+        <v>107</v>
+      </c>
+      <c r="K13" t="s">
+        <v>45</v>
+      </c>
+      <c r="L13" t="s">
+        <v>27</v>
+      </c>
+      <c r="N13" t="s">
+        <v>35</v>
+      </c>
+      <c r="O13" t="s">
+        <v>34</v>
+      </c>
+      <c r="P13" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="20.25" customHeight="1">
+      <c r="B14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" t="s">
+        <v>109</v>
+      </c>
+      <c r="K14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" t="s">
+        <v>36</v>
+      </c>
+      <c r="M14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="20.25" customHeight="1">
+      <c r="B15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" t="s">
+        <v>111</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G15" t="s">
+        <v>113</v>
+      </c>
+      <c r="H15" t="s">
+        <v>112</v>
+      </c>
+      <c r="K15" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" t="s">
+        <v>27</v>
+      </c>
+      <c r="N15" t="s">
+        <v>35</v>
+      </c>
+      <c r="O15" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>35</v>
+      </c>
+    </row>
     <row r="16" spans="1:20" ht="20.25" customHeight="1">
+      <c r="B16" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" t="s">
+        <v>115</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G16" t="s">
+        <v>117</v>
+      </c>
+      <c r="H16" t="s">
+        <v>118</v>
+      </c>
       <c r="J16" s="8"/>
-    </row>
-    <row r="17" spans="3:10" ht="20.25" customHeight="1">
+      <c r="K16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L16" t="s">
+        <v>27</v>
+      </c>
+      <c r="N16" t="s">
+        <v>35</v>
+      </c>
+      <c r="O16" t="s">
+        <v>34</v>
+      </c>
+      <c r="P16" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" ht="20.25" customHeight="1">
+      <c r="B17" t="s">
+        <v>121</v>
+      </c>
+      <c r="C17" t="s">
+        <v>120</v>
+      </c>
       <c r="J17" s="8"/>
-    </row>
-    <row r="18" spans="3:10" ht="20.25" customHeight="1">
-      <c r="J18" s="8"/>
-    </row>
-    <row r="19" spans="3:10" ht="20.25" customHeight="1">
-      <c r="J19" s="8"/>
-    </row>
-    <row r="20" spans="3:10" ht="20.25" customHeight="1">
+      <c r="K17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" ht="20.25" customHeight="1">
+      <c r="B18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C18" t="s">
+        <v>123</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G18" t="s">
+        <v>92</v>
+      </c>
+      <c r="H18" t="s">
+        <v>125</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="K18" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" t="s">
+        <v>27</v>
+      </c>
+      <c r="N18" t="s">
+        <v>35</v>
+      </c>
+      <c r="O18" t="s">
+        <v>34</v>
+      </c>
+      <c r="P18" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>34</v>
+      </c>
+      <c r="R18" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" ht="20.25" customHeight="1">
+      <c r="B19" t="s">
+        <v>128</v>
+      </c>
+      <c r="C19" t="s">
+        <v>129</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G19" t="s">
+        <v>131</v>
+      </c>
+      <c r="H19" t="s">
+        <v>132</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="K19" t="s">
+        <v>21</v>
+      </c>
+      <c r="L19" t="s">
+        <v>27</v>
+      </c>
+      <c r="N19" t="s">
+        <v>35</v>
+      </c>
+      <c r="O19" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" ht="20.25" customHeight="1">
+      <c r="B20" t="s">
+        <v>134</v>
+      </c>
+      <c r="C20" t="s">
+        <v>135</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="H20" t="s">
+        <v>138</v>
+      </c>
       <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-    </row>
-    <row r="21" spans="3:10" ht="20.25" customHeight="1">
+      <c r="J20" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="K20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L20" t="s">
+        <v>27</v>
+      </c>
+      <c r="N20" t="s">
+        <v>35</v>
+      </c>
+      <c r="O20" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" ht="20.25" customHeight="1">
+      <c r="B21" t="s">
+        <v>140</v>
+      </c>
+      <c r="C21" t="s">
+        <v>141</v>
+      </c>
       <c r="J21" s="1"/>
-    </row>
-    <row r="22" spans="3:10" ht="20.25" customHeight="1">
+      <c r="K21" t="s">
+        <v>21</v>
+      </c>
+      <c r="L21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" ht="20.25" customHeight="1">
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="3:10" ht="20.25" customHeight="1">
+    <row r="23" spans="2:18" ht="20.25" customHeight="1">
       <c r="J23" s="8"/>
     </row>
-    <row r="24" spans="3:10" ht="20.25" customHeight="1">
+    <row r="24" spans="2:18" ht="20.25" customHeight="1">
       <c r="J24" s="8"/>
     </row>
-    <row r="25" spans="3:10" ht="20.25" customHeight="1">
+    <row r="25" spans="2:18" ht="20.25" customHeight="1">
       <c r="C25" s="1"/>
       <c r="J25" s="8"/>
     </row>
-    <row r="26" spans="3:10" ht="20.25" customHeight="1">
+    <row r="26" spans="2:18" ht="20.25" customHeight="1">
       <c r="J26" s="8"/>
     </row>
-    <row r="27" spans="3:10" ht="20.25" customHeight="1">
+    <row r="27" spans="2:18" ht="20.25" customHeight="1">
       <c r="J27" s="8"/>
     </row>
-    <row r="28" spans="3:10" ht="20.25" customHeight="1">
+    <row r="28" spans="2:18" ht="20.25" customHeight="1">
       <c r="J28" s="8"/>
     </row>
-    <row r="29" spans="3:10" ht="20.25" customHeight="1">
+    <row r="29" spans="2:18" ht="20.25" customHeight="1">
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="3:10" ht="20.25" customHeight="1">
+    <row r="30" spans="2:18" ht="20.25" customHeight="1">
       <c r="J30" s="8"/>
     </row>
-    <row r="31" spans="3:10" ht="20.25" customHeight="1">
+    <row r="31" spans="2:18" ht="20.25" customHeight="1">
       <c r="J31" s="8"/>
     </row>
-    <row r="32" spans="3:10" ht="20.25" customHeight="1">
+    <row r="32" spans="2:18" ht="20.25" customHeight="1">
       <c r="J32" s="8"/>
     </row>
     <row r="33" spans="3:10" ht="20.25" customHeight="1">
@@ -1264,7 +2085,7 @@
           <x14:formula1>
             <xm:f>Sheet2!$O$2:$O$3</xm:f>
           </x14:formula1>
-          <xm:sqref>R1240:R1241 N2:N235 P1671 Q2:Q235 N237:N1048576 Q1672:Q1048576 Q237:Q1670</xm:sqref>
+          <xm:sqref>R1240:R1241 Q237:Q1670 P1671 Q2:Q235 N237:N1048576 Q1672:Q1048576 N2:N235</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -1311,18 +2132,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="E1" s="23" t="s">
+      <c r="B1" s="24"/>
+      <c r="E1" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="23"/>
-      <c r="J1" s="24" t="s">
+      <c r="F1" s="24"/>
+      <c r="J1" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="24"/>
+      <c r="K1" s="25"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="6">

--- a/таблица слов — c1.xlsx
+++ b/таблица слов — c1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="233">
   <si>
     <t>категория</t>
   </si>
@@ -481,6 +481,339 @@
   </si>
   <si>
     <t>bestehend</t>
+  </si>
+  <si>
+    <t>обнару́житься</t>
+  </si>
+  <si>
+    <t>auftauchen</t>
+  </si>
+  <si>
+    <r>
+      <t>tauch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD91D3E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>t</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> tauch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD91D3E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>ten</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>aufgetauch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD91D3E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>t</t>
+    </r>
+  </si>
+  <si>
+    <t>auf</t>
+  </si>
+  <si>
+    <t>ла́комиться</t>
+  </si>
+  <si>
+    <t>naschen</t>
+  </si>
+  <si>
+    <t>nascht</t>
+  </si>
+  <si>
+    <r>
+      <t>nasch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD91D3E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>ten</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>genasch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD91D3E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>t</t>
+    </r>
+  </si>
+  <si>
+    <t>(etw.Akk.) naschen </t>
+  </si>
+  <si>
+    <t>получа́ться</t>
+  </si>
+  <si>
+    <t>gelingen</t>
+  </si>
+  <si>
+    <t>gelingt</t>
+  </si>
+  <si>
+    <t>gelang</t>
+  </si>
+  <si>
+    <t>gelungen</t>
+  </si>
+  <si>
+    <t>(jmdm.) gelingen </t>
+  </si>
+  <si>
+    <t>недостава́ть</t>
+  </si>
+  <si>
+    <t>mangeln </t>
+  </si>
+  <si>
+    <t>mangelt</t>
+  </si>
+  <si>
+    <t>mangelte</t>
+  </si>
+  <si>
+    <t>gemangelt</t>
+  </si>
+  <si>
+    <t>(an etw.Akk.) mangeln</t>
+  </si>
+  <si>
+    <t>an</t>
+  </si>
+  <si>
+    <t>примени́ть</t>
+  </si>
+  <si>
+    <t>einsetzen </t>
+  </si>
+  <si>
+    <t>setzt</t>
+  </si>
+  <si>
+    <t>setzten</t>
+  </si>
+  <si>
+    <t>eingesetzt</t>
+  </si>
+  <si>
+    <t>(etw.Akk. bei etw.Dat.) einsetzen</t>
+  </si>
+  <si>
+    <t>bei</t>
+  </si>
+  <si>
+    <t>опроверга́ть</t>
+  </si>
+  <si>
+    <t>widerlegen</t>
+  </si>
+  <si>
+    <t>widerlegt</t>
+  </si>
+  <si>
+    <t>widerlegten</t>
+  </si>
+  <si>
+    <t>(etw.Akk.) widerlegen</t>
+  </si>
+  <si>
+    <t>verursachen </t>
+  </si>
+  <si>
+    <t>verursacht</t>
+  </si>
+  <si>
+    <t>verursachten</t>
+  </si>
+  <si>
+    <t>(etw.Akk.) verursachen </t>
+  </si>
+  <si>
+    <t>быть причи́ной </t>
+  </si>
+  <si>
+    <t>быть причи́ной (чего́-л.)</t>
+  </si>
+  <si>
+    <t>то́лько что</t>
+  </si>
+  <si>
+    <t>soeben</t>
+  </si>
+  <si>
+    <t>кропотли́вый </t>
+  </si>
+  <si>
+    <t>mühsam</t>
+  </si>
+  <si>
+    <t>изголода́вшийся, исхуда́лый </t>
+  </si>
+  <si>
+    <t>abgehungert</t>
+  </si>
+  <si>
+    <t>Hüfte</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>бедро́</t>
+  </si>
+  <si>
+    <t>Gewissensbisse</t>
+  </si>
+  <si>
+    <t>угрызе́ния со́вести </t>
+  </si>
+  <si>
+    <t>Diätwilligen</t>
+  </si>
+  <si>
+    <t>сидящие на диете</t>
+  </si>
+  <si>
+    <t>позна́ние</t>
+  </si>
+  <si>
+    <t>Erkenntnis </t>
+  </si>
+  <si>
+    <t>Nervenzelle</t>
+  </si>
+  <si>
+    <t>не́рвная кле́тка</t>
+  </si>
+  <si>
+    <t>bisherig</t>
+  </si>
+  <si>
+    <t>бы́вший</t>
+  </si>
+  <si>
+    <t>гипо́теза</t>
+  </si>
+  <si>
+    <t>Annahme </t>
+  </si>
+  <si>
+    <t>урча́ние в животе́</t>
+  </si>
+  <si>
+    <t>Magenknurren </t>
+  </si>
+  <si>
+    <t>nagen</t>
+  </si>
+  <si>
+    <t>обгла́дывать</t>
+  </si>
+  <si>
+    <t>nagt</t>
+  </si>
+  <si>
+    <t>nagten</t>
+  </si>
+  <si>
+    <t>genagt</t>
+  </si>
+  <si>
+    <t>(an etw.Dat.) nagen</t>
+  </si>
+  <si>
+    <t>wortwörtlich</t>
+  </si>
+  <si>
+    <t>буква́льно </t>
+  </si>
+  <si>
+    <t>Wille </t>
+  </si>
+  <si>
+    <t>во́ля</t>
+  </si>
+  <si>
+    <t>отказа́ть себе́ (в чём-л.)</t>
+  </si>
+  <si>
+    <t>verzichten</t>
+  </si>
+  <si>
+    <t>verzichtet</t>
+  </si>
+  <si>
+    <t>verzichteten</t>
+  </si>
+  <si>
+    <t>(auf etw.Akk.) verzichten</t>
+  </si>
+  <si>
+    <t>Teufelskreis</t>
+  </si>
+  <si>
+    <t>поро́чный круг</t>
+  </si>
+  <si>
+    <t>вы́теснить</t>
+  </si>
+  <si>
+    <t>austreiben</t>
+  </si>
+  <si>
+    <t>treibt</t>
+  </si>
+  <si>
+    <t>trieb aus</t>
+  </si>
+  <si>
+    <t>ausgetrieben</t>
+  </si>
+  <si>
+    <t>aus</t>
+  </si>
+  <si>
+    <t>Gewichtsverlust </t>
+  </si>
+  <si>
+    <t>поте́ря в ве́се</t>
   </si>
 </sst>
 </file>
@@ -1116,9 +1449,9 @@
   <dimension ref="A1:U4295"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="I21" sqref="I21"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5" defaultRowHeight="12.75"/>
@@ -1635,7 +1968,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="2:18" ht="20.25" customHeight="1">
+    <row r="17" spans="2:19" ht="20.25" customHeight="1">
       <c r="B17" t="s">
         <v>121</v>
       </c>
@@ -1650,7 +1983,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="2:18" ht="20.25" customHeight="1">
+    <row r="18" spans="2:19" ht="20.25" customHeight="1">
       <c r="B18" t="s">
         <v>122</v>
       </c>
@@ -1691,7 +2024,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="19" spans="2:18" ht="20.25" customHeight="1">
+    <row r="19" spans="2:19" ht="20.25" customHeight="1">
       <c r="B19" t="s">
         <v>128</v>
       </c>
@@ -1726,7 +2059,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="2:18" ht="20.25" customHeight="1">
+    <row r="20" spans="2:19" ht="20.25" customHeight="1">
       <c r="B20" t="s">
         <v>134</v>
       </c>
@@ -1762,7 +2095,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="2:18" ht="20.25" customHeight="1">
+    <row r="21" spans="2:19" ht="20.25" customHeight="1">
       <c r="B21" t="s">
         <v>140</v>
       </c>
@@ -1777,72 +2110,637 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="2:18" ht="20.25" customHeight="1">
+    <row r="22" spans="2:19" ht="20.25" customHeight="1">
+      <c r="B22" t="s">
+        <v>142</v>
+      </c>
+      <c r="C22" t="s">
+        <v>143</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>146</v>
+      </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
-    </row>
-    <row r="23" spans="2:18" ht="20.25" customHeight="1">
-      <c r="J23" s="8"/>
-    </row>
-    <row r="24" spans="2:18" ht="20.25" customHeight="1">
-      <c r="J24" s="8"/>
-    </row>
-    <row r="25" spans="2:18" ht="20.25" customHeight="1">
-      <c r="C25" s="1"/>
-      <c r="J25" s="8"/>
-    </row>
-    <row r="26" spans="2:18" ht="20.25" customHeight="1">
-      <c r="J26" s="8"/>
-    </row>
-    <row r="27" spans="2:18" ht="20.25" customHeight="1">
-      <c r="J27" s="8"/>
-    </row>
-    <row r="28" spans="2:18" ht="20.25" customHeight="1">
-      <c r="J28" s="8"/>
-    </row>
-    <row r="29" spans="2:18" ht="20.25" customHeight="1">
+      <c r="K22" t="s">
+        <v>48</v>
+      </c>
+      <c r="L22" t="s">
+        <v>27</v>
+      </c>
+      <c r="N22" t="s">
+        <v>34</v>
+      </c>
+      <c r="O22" t="s">
+        <v>34</v>
+      </c>
+      <c r="P22" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="2:19" ht="20.25" customHeight="1">
+      <c r="B23" t="s">
+        <v>148</v>
+      </c>
+      <c r="C23" t="s">
+        <v>149</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="K23" t="s">
+        <v>48</v>
+      </c>
+      <c r="L23" t="s">
+        <v>27</v>
+      </c>
+      <c r="N23" t="s">
+        <v>35</v>
+      </c>
+      <c r="O23" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="2:19" ht="20.25" customHeight="1">
+      <c r="B24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C24" t="s">
+        <v>155</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="G24" t="s">
+        <v>157</v>
+      </c>
+      <c r="H24" t="s">
+        <v>158</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="K24" t="s">
+        <v>48</v>
+      </c>
+      <c r="L24" t="s">
+        <v>27</v>
+      </c>
+      <c r="N24" t="s">
+        <v>34</v>
+      </c>
+      <c r="O24" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="2:19" ht="20.25" customHeight="1">
+      <c r="B25" t="s">
+        <v>160</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="G25" t="s">
+        <v>163</v>
+      </c>
+      <c r="H25" t="s">
+        <v>164</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="K25" t="s">
+        <v>48</v>
+      </c>
+      <c r="L25" t="s">
+        <v>27</v>
+      </c>
+      <c r="N25" t="s">
+        <v>35</v>
+      </c>
+      <c r="O25" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>35</v>
+      </c>
+      <c r="R25" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="26" spans="2:19" ht="20.25" customHeight="1">
+      <c r="B26" t="s">
+        <v>167</v>
+      </c>
+      <c r="C26" t="s">
+        <v>168</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="G26" t="s">
+        <v>170</v>
+      </c>
+      <c r="H26" t="s">
+        <v>171</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="K26" t="s">
+        <v>48</v>
+      </c>
+      <c r="L26" t="s">
+        <v>27</v>
+      </c>
+      <c r="N26" t="s">
+        <v>35</v>
+      </c>
+      <c r="O26" t="s">
+        <v>34</v>
+      </c>
+      <c r="P26" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>35</v>
+      </c>
+      <c r="S26" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="27" spans="2:19" ht="20.25" customHeight="1">
+      <c r="B27" t="s">
+        <v>174</v>
+      </c>
+      <c r="C27" t="s">
+        <v>175</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G27" t="s">
+        <v>177</v>
+      </c>
+      <c r="H27" t="s">
+        <v>176</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="K27" t="s">
+        <v>48</v>
+      </c>
+      <c r="L27" t="s">
+        <v>27</v>
+      </c>
+      <c r="N27" t="s">
+        <v>35</v>
+      </c>
+      <c r="O27" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="2:19" ht="20.25" customHeight="1">
+      <c r="B28" t="s">
+        <v>183</v>
+      </c>
+      <c r="C28" t="s">
+        <v>179</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="G28" t="s">
+        <v>181</v>
+      </c>
+      <c r="H28" t="s">
+        <v>180</v>
+      </c>
+      <c r="I28" t="s">
+        <v>184</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="K28" t="s">
+        <v>48</v>
+      </c>
+      <c r="L28" t="s">
+        <v>27</v>
+      </c>
+      <c r="N28" t="s">
+        <v>35</v>
+      </c>
+      <c r="O28" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="2:19" ht="20.25" customHeight="1">
+      <c r="B29" t="s">
+        <v>185</v>
+      </c>
+      <c r="C29" t="s">
+        <v>186</v>
+      </c>
       <c r="J29" s="1"/>
-    </row>
-    <row r="30" spans="2:18" ht="20.25" customHeight="1">
+      <c r="K29" t="s">
+        <v>48</v>
+      </c>
+      <c r="L29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="2:19" ht="20.25" customHeight="1">
+      <c r="B30" t="s">
+        <v>187</v>
+      </c>
+      <c r="C30" t="s">
+        <v>188</v>
+      </c>
       <c r="J30" s="8"/>
-    </row>
-    <row r="31" spans="2:18" ht="20.25" customHeight="1">
+      <c r="K30" t="s">
+        <v>48</v>
+      </c>
+      <c r="L30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="2:19" ht="20.25" customHeight="1">
+      <c r="B31" t="s">
+        <v>189</v>
+      </c>
+      <c r="C31" t="s">
+        <v>190</v>
+      </c>
       <c r="J31" s="8"/>
-    </row>
-    <row r="32" spans="2:18" ht="20.25" customHeight="1">
+      <c r="K31" t="s">
+        <v>48</v>
+      </c>
+      <c r="L31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="2:19" ht="20.25" customHeight="1">
+      <c r="B32" t="s">
+        <v>193</v>
+      </c>
+      <c r="C32" t="s">
+        <v>191</v>
+      </c>
+      <c r="D32" t="s">
+        <v>192</v>
+      </c>
       <c r="J32" s="8"/>
-    </row>
-    <row r="33" spans="3:10" ht="20.25" customHeight="1">
+      <c r="K32" t="s">
+        <v>48</v>
+      </c>
+      <c r="L32" t="s">
+        <v>36</v>
+      </c>
+      <c r="M32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" ht="20.25" customHeight="1">
+      <c r="B33" t="s">
+        <v>195</v>
+      </c>
+      <c r="C33" t="s">
+        <v>194</v>
+      </c>
       <c r="J33" s="8"/>
-    </row>
-    <row r="34" spans="3:10" ht="20.25" customHeight="1">
+      <c r="K33" t="s">
+        <v>48</v>
+      </c>
+      <c r="L33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" ht="20.25" customHeight="1">
+      <c r="B34" t="s">
+        <v>197</v>
+      </c>
+      <c r="C34" t="s">
+        <v>196</v>
+      </c>
       <c r="J34" s="8"/>
-    </row>
-    <row r="35" spans="3:10" ht="20.25" customHeight="1">
+      <c r="K34" t="s">
+        <v>48</v>
+      </c>
+      <c r="L34" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" ht="20.25" customHeight="1">
+      <c r="B35" t="s">
+        <v>198</v>
+      </c>
+      <c r="C35" t="s">
+        <v>199</v>
+      </c>
       <c r="J35" s="1"/>
-    </row>
-    <row r="36" spans="3:10" ht="20.25" customHeight="1">
+      <c r="K35" t="s">
+        <v>48</v>
+      </c>
+      <c r="L35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="2:19" ht="20.25" customHeight="1">
+      <c r="B36" t="s">
+        <v>201</v>
+      </c>
+      <c r="C36" t="s">
+        <v>200</v>
+      </c>
+      <c r="D36" t="s">
+        <v>192</v>
+      </c>
       <c r="J36" s="8"/>
-    </row>
-    <row r="37" spans="3:10" ht="20.25" customHeight="1">
-      <c r="C37" s="1"/>
+      <c r="K36" t="s">
+        <v>48</v>
+      </c>
+      <c r="L36" t="s">
+        <v>36</v>
+      </c>
+      <c r="M36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" ht="20.25" customHeight="1">
+      <c r="B37" t="s">
+        <v>203</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>202</v>
+      </c>
       <c r="J37" s="8"/>
-    </row>
-    <row r="38" spans="3:10" ht="20.25" customHeight="1">
+      <c r="K37" t="s">
+        <v>48</v>
+      </c>
+      <c r="L37" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="2:19" ht="20.25" customHeight="1">
+      <c r="B38" t="s">
+        <v>204</v>
+      </c>
+      <c r="C38" t="s">
+        <v>205</v>
+      </c>
+      <c r="D38" t="s">
+        <v>192</v>
+      </c>
       <c r="J38" s="8"/>
-    </row>
-    <row r="39" spans="3:10" ht="20.25" customHeight="1">
+      <c r="K38" t="s">
+        <v>48</v>
+      </c>
+      <c r="L38" t="s">
+        <v>36</v>
+      </c>
+      <c r="M38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" ht="20.25" customHeight="1">
+      <c r="B39" t="s">
+        <v>206</v>
+      </c>
+      <c r="C39" t="s">
+        <v>207</v>
+      </c>
       <c r="E39" s="1"/>
-    </row>
-    <row r="40" spans="3:10" ht="20.25" customHeight="1"/>
-    <row r="41" spans="3:10" ht="20.25" customHeight="1"/>
-    <row r="42" spans="3:10" ht="20.25" customHeight="1"/>
-    <row r="43" spans="3:10" ht="20.25" customHeight="1">
-      <c r="J43" s="1"/>
-    </row>
-    <row r="46" spans="3:10">
+      <c r="K39" t="s">
+        <v>48</v>
+      </c>
+      <c r="L39" t="s">
+        <v>36</v>
+      </c>
+      <c r="M39" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="2:19" ht="20.25" customHeight="1">
+      <c r="B40" t="s">
+        <v>209</v>
+      </c>
+      <c r="C40" t="s">
+        <v>208</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="G40" t="s">
+        <v>211</v>
+      </c>
+      <c r="H40" t="s">
+        <v>212</v>
+      </c>
+      <c r="J40" t="s">
+        <v>213</v>
+      </c>
+      <c r="K40" t="s">
+        <v>48</v>
+      </c>
+      <c r="L40" t="s">
+        <v>27</v>
+      </c>
+      <c r="N40" t="s">
+        <v>35</v>
+      </c>
+      <c r="O40" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>35</v>
+      </c>
+      <c r="S40" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="41" spans="2:19" ht="20.25" customHeight="1">
+      <c r="B41" t="s">
+        <v>215</v>
+      </c>
+      <c r="C41" t="s">
+        <v>214</v>
+      </c>
+      <c r="K41" t="s">
+        <v>23</v>
+      </c>
+      <c r="L41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" ht="20.25" customHeight="1">
+      <c r="B42" t="s">
+        <v>217</v>
+      </c>
+      <c r="C42" t="s">
+        <v>216</v>
+      </c>
+      <c r="K42" t="s">
+        <v>48</v>
+      </c>
+      <c r="L42" t="s">
+        <v>36</v>
+      </c>
+      <c r="M42" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" ht="20.25" customHeight="1">
+      <c r="B43" t="s">
+        <v>218</v>
+      </c>
+      <c r="C43" t="s">
+        <v>219</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="G43" t="s">
+        <v>221</v>
+      </c>
+      <c r="H43" t="s">
+        <v>220</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K43" t="s">
+        <v>48</v>
+      </c>
+      <c r="L43" t="s">
+        <v>27</v>
+      </c>
+      <c r="N43" t="s">
+        <v>35</v>
+      </c>
+      <c r="O43" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>35</v>
+      </c>
+      <c r="R43" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19">
+      <c r="B44" t="s">
+        <v>224</v>
+      </c>
+      <c r="C44" t="s">
+        <v>223</v>
+      </c>
+      <c r="D44" t="s">
+        <v>60</v>
+      </c>
+      <c r="K44" t="s">
+        <v>48</v>
+      </c>
+      <c r="L44" t="s">
+        <v>36</v>
+      </c>
+      <c r="M44" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19">
+      <c r="B45" t="s">
+        <v>225</v>
+      </c>
+      <c r="C45" t="s">
+        <v>226</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="G45" t="s">
+        <v>228</v>
+      </c>
+      <c r="H45" t="s">
+        <v>229</v>
+      </c>
+      <c r="K45" t="s">
+        <v>48</v>
+      </c>
+      <c r="L45" t="s">
+        <v>27</v>
+      </c>
+      <c r="N45" t="s">
+        <v>35</v>
+      </c>
+      <c r="O45" t="s">
+        <v>34</v>
+      </c>
+      <c r="P45" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>34</v>
+      </c>
+      <c r="R45" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19">
+      <c r="B46" t="s">
+        <v>232</v>
+      </c>
+      <c r="C46" t="s">
+        <v>231</v>
+      </c>
+      <c r="D46" t="s">
+        <v>60</v>
+      </c>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
+      <c r="K46" t="s">
+        <v>48</v>
+      </c>
+      <c r="L46" t="s">
+        <v>36</v>
+      </c>
+      <c r="M46" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="49" spans="9:10">
       <c r="I49" s="1"/>
@@ -2085,7 +2983,7 @@
           <x14:formula1>
             <xm:f>Sheet2!$O$2:$O$3</xm:f>
           </x14:formula1>
-          <xm:sqref>R1240:R1241 Q237:Q1670 P1671 Q2:Q235 N237:N1048576 Q1672:Q1048576 N2:N235</xm:sqref>
+          <xm:sqref>R1240:R1241 Q237:Q1670 P1671 N2:N235 N237:N1048576 Q1672:Q1048576 Q2:Q235</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>

--- a/таблица слов — c1.xlsx
+++ b/таблица слов — c1.xlsx
@@ -1086,9 +1086,9 @@
   <cellStyles count="5">
     <cellStyle name="Copernicus Header" xfId="2"/>
     <cellStyle name="Copernicus Normal" xfId="1"/>
-    <cellStyle name="Гиперссылка" xfId="3" builtinId="8"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Пояснение" xfId="4" builtinId="53"/>
+    <cellStyle name="Explanatory Text" xfId="4" builtinId="53"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1160,9 +1160,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1200,7 +1200,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1272,7 +1272,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1449,9 +1449,9 @@
   <dimension ref="A1:U4295"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
+      <selection pane="bottomLeft" activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5" defaultRowHeight="12.75"/>
@@ -1721,7 +1721,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="20.25" customHeight="1">
+    <row r="8" spans="1:20" ht="18.75" customHeight="1">
       <c r="B8" s="1" t="s">
         <v>85</v>
       </c>
@@ -1738,7 +1738,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="20.25" customHeight="1">
+    <row r="9" spans="1:20" ht="21.75" customHeight="1">
       <c r="B9" t="s">
         <v>87</v>
       </c>
@@ -2662,7 +2662,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="44" spans="2:19">
+    <row r="44" spans="2:19" ht="21" customHeight="1">
       <c r="B44" t="s">
         <v>224</v>
       </c>
@@ -2682,7 +2682,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="2:19">
+    <row r="45" spans="2:19" ht="19.5" customHeight="1">
       <c r="B45" t="s">
         <v>225</v>
       </c>
@@ -2720,7 +2720,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="46" spans="2:19">
+    <row r="46" spans="2:19" ht="19.5" customHeight="1">
       <c r="B46" t="s">
         <v>232</v>
       </c>
@@ -2912,6 +2912,7 @@
     <row r="4232" spans="2:2">
       <c r="B4232" s="21"/>
     </row>
+    <row r="4266" ht="19.5" customHeight="1"/>
     <row r="4280" spans="2:18">
       <c r="B4280" s="10"/>
       <c r="F4280" s="9"/>

--- a/таблица слов — c1.xlsx
+++ b/таблица слов — c1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="362">
   <si>
     <t>категория</t>
   </si>
@@ -814,6 +814,531 @@
   </si>
   <si>
     <t>поте́ря в ве́се</t>
+  </si>
+  <si>
+    <t>Verweis </t>
+  </si>
+  <si>
+    <t>ссы́лка</t>
+  </si>
+  <si>
+    <t>Grundpfeiler </t>
+  </si>
+  <si>
+    <t>столп</t>
+  </si>
+  <si>
+    <t>mühelos</t>
+  </si>
+  <si>
+    <t>без труда́</t>
+  </si>
+  <si>
+    <t>weiterleiten</t>
+  </si>
+  <si>
+    <t>переадресова́ть</t>
+  </si>
+  <si>
+    <t>leitet weiter</t>
+  </si>
+  <si>
+    <t>leitete weiter</t>
+  </si>
+  <si>
+    <t>weitergeleitet</t>
+  </si>
+  <si>
+    <t>solch</t>
+  </si>
+  <si>
+    <t>подо́бный</t>
+  </si>
+  <si>
+    <t>ermöglichen</t>
+  </si>
+  <si>
+    <t>де́лать возмо́жным (что-л.)</t>
+  </si>
+  <si>
+    <t>ermöglicht</t>
+  </si>
+  <si>
+    <t>ermöglichte</t>
+  </si>
+  <si>
+    <t>Austausch </t>
+  </si>
+  <si>
+    <t>обме́н (чем-л.) </t>
+  </si>
+  <si>
+    <t>Lobgesang </t>
+  </si>
+  <si>
+    <t>хвале́бная песнь</t>
+  </si>
+  <si>
+    <t>Sichtweise </t>
+  </si>
+  <si>
+    <t>то́чка зре́ния </t>
+  </si>
+  <si>
+    <t>beeinflussen </t>
+  </si>
+  <si>
+    <t>влия́ть (на кого́-л./что-л.)</t>
+  </si>
+  <si>
+    <t>beeinflusst</t>
+  </si>
+  <si>
+    <t>beeinflusste</t>
+  </si>
+  <si>
+    <t>immens</t>
+  </si>
+  <si>
+    <t>бесконе́чный</t>
+  </si>
+  <si>
+    <t>Eingabefeld </t>
+  </si>
+  <si>
+    <t>по́ле вво́да</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>einrichten</t>
+  </si>
+  <si>
+    <t>организова́ть (что-л.)</t>
+  </si>
+  <si>
+    <t>richtet</t>
+  </si>
+  <si>
+    <t>richtete </t>
+  </si>
+  <si>
+    <t>eingerichtet</t>
+  </si>
+  <si>
+    <t>Eingabe</t>
+  </si>
+  <si>
+    <t>ввод</t>
+  </si>
+  <si>
+    <t>Ausgabe</t>
+  </si>
+  <si>
+    <t>вы́вод</t>
+  </si>
+  <si>
+    <t>Suchbegriff </t>
+  </si>
+  <si>
+    <t>ключево́е сло́во  </t>
+  </si>
+  <si>
+    <t>verwenden </t>
+  </si>
+  <si>
+    <t>воспо́льзоваться (чем-л.)</t>
+  </si>
+  <si>
+    <r>
+      <t>verw</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD91D3E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>endet</t>
+    </r>
+  </si>
+  <si>
+    <t>verwendete | verwandte</t>
+  </si>
+  <si>
+    <t>verwendet / verwandt</t>
+  </si>
+  <si>
+    <t>solange</t>
+  </si>
+  <si>
+    <t>в то вре́мя как</t>
+  </si>
+  <si>
+    <t>Verschachtelung </t>
+  </si>
+  <si>
+    <t>вложе́ние</t>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
+  <si>
+    <t>besitzen </t>
+  </si>
+  <si>
+    <t>по́льзоватьсяu (чем-л.) </t>
+  </si>
+  <si>
+    <t>besitzt</t>
+  </si>
+  <si>
+    <t>besaß</t>
+  </si>
+  <si>
+    <t>besessen</t>
+  </si>
+  <si>
+    <t>ablegen</t>
+  </si>
+  <si>
+    <t>отказа́ться (от чего́-л.)</t>
+  </si>
+  <si>
+    <t>legt ab</t>
+  </si>
+  <si>
+    <t> legte ab</t>
+  </si>
+  <si>
+    <t>abgelegt</t>
+  </si>
+  <si>
+    <t>verwalten </t>
+  </si>
+  <si>
+    <t>управля́ть (чем-л.)</t>
+  </si>
+  <si>
+    <t>verwaltet</t>
+  </si>
+  <si>
+    <t>verwaltete</t>
+  </si>
+  <si>
+    <t>Anforderung </t>
+  </si>
+  <si>
+    <t>запро́с </t>
+  </si>
+  <si>
+    <t>einheitlich</t>
+  </si>
+  <si>
+    <t>станда́ртный</t>
+  </si>
+  <si>
+    <t>gelangen </t>
+  </si>
+  <si>
+    <t>дойти́ (до чего́-л.)  </t>
+  </si>
+  <si>
+    <t>gelangt</t>
+  </si>
+  <si>
+    <t>gelangte</t>
+  </si>
+  <si>
+    <t>(zu etw. +Dat.) gelangen</t>
+  </si>
+  <si>
+    <t>jener | jene | jenes</t>
+  </si>
+  <si>
+    <t>тот | та | то  указат.</t>
+  </si>
+  <si>
+    <t>versorgen </t>
+  </si>
+  <si>
+    <t>обеспе́читьv (кого́-л./что-л. чем-л.)</t>
+  </si>
+  <si>
+    <t>versorgt</t>
+  </si>
+  <si>
+    <t>versorgte</t>
+  </si>
+  <si>
+    <t>(jmdn./etw.Akk. mit etw.Dat.) versorgen </t>
+  </si>
+  <si>
+    <t>mit</t>
+  </si>
+  <si>
+    <t>zu</t>
+  </si>
+  <si>
+    <t>pathetisch</t>
+  </si>
+  <si>
+    <t>патети́ческий </t>
+  </si>
+  <si>
+    <t>hervorheben </t>
+  </si>
+  <si>
+    <t>вы́делить (что-л.)  </t>
+  </si>
+  <si>
+    <t>hebt hervor</t>
+  </si>
+  <si>
+    <t>hob hervor</t>
+  </si>
+  <si>
+    <t> hervorgehoben</t>
+  </si>
+  <si>
+    <t>(etw.Akk.) hervorheben </t>
+  </si>
+  <si>
+    <t>hervor</t>
+  </si>
+  <si>
+    <t>Anwählen </t>
+  </si>
+  <si>
+    <t>вызов</t>
+  </si>
+  <si>
+    <t>geschehen </t>
+  </si>
+  <si>
+    <t>де́латься - происходи́ть</t>
+  </si>
+  <si>
+    <t>geschieht</t>
+  </si>
+  <si>
+    <t>geschah</t>
+  </si>
+  <si>
+    <t>geschehen</t>
+  </si>
+  <si>
+    <t>Lesezeichen </t>
+  </si>
+  <si>
+    <t>закла́дка </t>
+  </si>
+  <si>
+    <t> bevorzugen</t>
+  </si>
+  <si>
+    <t>отдава́ть предпочте́ние (кому́-л./чему́-л.)</t>
+  </si>
+  <si>
+    <t>bevorzugt</t>
+  </si>
+  <si>
+    <r>
+      <t>bevorzug</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD91D3E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>te</t>
+    </r>
+  </si>
+  <si>
+    <t>Schalter </t>
+  </si>
+  <si>
+    <t>переключа́тель</t>
+  </si>
+  <si>
+    <t>erscheinen</t>
+  </si>
+  <si>
+    <t>представа́ть (пе́ред кем-л.)</t>
+  </si>
+  <si>
+    <r>
+      <t>ersch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD91D3E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>eint</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ersch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD91D3E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>ien</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ersch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD91D3E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>ienen</t>
+    </r>
+  </si>
+  <si>
+    <t>unterscheidbar</t>
+  </si>
+  <si>
+    <t>различи́мый </t>
+  </si>
+  <si>
+    <t>umgestalten </t>
+  </si>
+  <si>
+    <t>преобразова́ть (что-л.) </t>
+  </si>
+  <si>
+    <t>gestaltet um</t>
+  </si>
+  <si>
+    <r>
+      <t>gestalt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD91D3E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>ete</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t> um</t>
+    </r>
+  </si>
+  <si>
+    <t>umgestaltet</t>
+  </si>
+  <si>
+    <t>um</t>
+  </si>
+  <si>
+    <t>eindeutig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">однозна́чный  / я́сный </t>
+  </si>
+  <si>
+    <t>umwandeln</t>
+  </si>
+  <si>
+    <t>конверти́ровать /преобразо́вывать (что-л.)</t>
+  </si>
+  <si>
+    <r>
+      <t>wandel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD91D3E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t> um</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>wandel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD91D3E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>te</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t> um</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>umgewandel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD91D3E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>t</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1086,9 +1611,9 @@
   <cellStyles count="5">
     <cellStyle name="Copernicus Header" xfId="2"/>
     <cellStyle name="Copernicus Normal" xfId="1"/>
-    <cellStyle name="Explanatory Text" xfId="4" builtinId="53"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Гиперссылка" xfId="3" builtinId="8"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Пояснение" xfId="4" builtinId="53"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1160,9 +1685,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1200,7 +1725,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1272,7 +1797,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1449,9 +1974,9 @@
   <dimension ref="A1:U4295"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="B46" sqref="B46"/>
+      <selection pane="bottomLeft" activeCell="A85" sqref="A85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5" defaultRowHeight="12.75"/>
@@ -2742,21 +3267,892 @@
         <v>37</v>
       </c>
     </row>
-    <row r="49" spans="9:10">
+    <row r="47" spans="2:19">
+      <c r="B47" t="s">
+        <v>234</v>
+      </c>
+      <c r="C47" t="s">
+        <v>233</v>
+      </c>
+      <c r="D47" t="s">
+        <v>60</v>
+      </c>
+      <c r="K47" t="s">
+        <v>54</v>
+      </c>
+      <c r="L47" t="s">
+        <v>36</v>
+      </c>
+      <c r="M47" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19">
+      <c r="B48" t="s">
+        <v>236</v>
+      </c>
+      <c r="C48" t="s">
+        <v>235</v>
+      </c>
+      <c r="K48" t="s">
+        <v>23</v>
+      </c>
+      <c r="L48" t="s">
+        <v>36</v>
+      </c>
+      <c r="M48" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="49" spans="2:17">
+      <c r="B49" t="s">
+        <v>238</v>
+      </c>
+      <c r="C49" t="s">
+        <v>237</v>
+      </c>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
-    </row>
-    <row r="50" spans="9:10">
+      <c r="K49" t="s">
+        <v>23</v>
+      </c>
+      <c r="L49" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="50" spans="2:17">
+      <c r="B50" t="s">
+        <v>240</v>
+      </c>
+      <c r="C50" t="s">
+        <v>239</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="G50" t="s">
+        <v>242</v>
+      </c>
+      <c r="H50" t="s">
+        <v>243</v>
+      </c>
       <c r="J50" s="1"/>
-    </row>
-    <row r="56" spans="9:10">
+      <c r="K50" t="s">
+        <v>54</v>
+      </c>
+      <c r="L50" t="s">
+        <v>27</v>
+      </c>
+      <c r="N50" t="s">
+        <v>35</v>
+      </c>
+      <c r="P50" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51" spans="2:17">
+      <c r="B51" t="s">
+        <v>245</v>
+      </c>
+      <c r="C51" t="s">
+        <v>244</v>
+      </c>
+      <c r="K51" t="s">
+        <v>45</v>
+      </c>
+      <c r="L51" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="52" spans="2:17">
+      <c r="B52" t="s">
+        <v>247</v>
+      </c>
+      <c r="C52" t="s">
+        <v>246</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="G52" t="s">
+        <v>249</v>
+      </c>
+      <c r="H52" t="s">
+        <v>248</v>
+      </c>
+      <c r="K52" t="s">
+        <v>23</v>
+      </c>
+      <c r="L52" t="s">
+        <v>27</v>
+      </c>
+      <c r="N52" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="53" spans="2:17">
+      <c r="B53" t="s">
+        <v>251</v>
+      </c>
+      <c r="C53" t="s">
+        <v>250</v>
+      </c>
+      <c r="K53" t="s">
+        <v>23</v>
+      </c>
+      <c r="L53" t="s">
+        <v>36</v>
+      </c>
+      <c r="M53" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="54" spans="2:17">
+      <c r="B54" t="s">
+        <v>253</v>
+      </c>
+      <c r="C54" t="s">
+        <v>252</v>
+      </c>
+      <c r="K54" t="s">
+        <v>23</v>
+      </c>
+      <c r="L54" t="s">
+        <v>36</v>
+      </c>
+      <c r="M54" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="55" spans="2:17">
+      <c r="B55" t="s">
+        <v>255</v>
+      </c>
+      <c r="C55" t="s">
+        <v>254</v>
+      </c>
+      <c r="D55" t="s">
+        <v>192</v>
+      </c>
+      <c r="K55" t="s">
+        <v>23</v>
+      </c>
+      <c r="L55" t="s">
+        <v>36</v>
+      </c>
+      <c r="M55" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56" spans="2:17">
+      <c r="B56" t="s">
+        <v>257</v>
+      </c>
+      <c r="C56" t="s">
+        <v>256</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="G56" t="s">
+        <v>259</v>
+      </c>
+      <c r="H56" t="s">
+        <v>258</v>
+      </c>
       <c r="J56" s="1"/>
-    </row>
-    <row r="69" spans="2:10">
+      <c r="K56" t="s">
+        <v>23</v>
+      </c>
+      <c r="L56" t="s">
+        <v>27</v>
+      </c>
+      <c r="N56" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="57" spans="2:17">
+      <c r="B57" t="s">
+        <v>261</v>
+      </c>
+      <c r="C57" t="s">
+        <v>260</v>
+      </c>
+      <c r="K57" t="s">
+        <v>23</v>
+      </c>
+      <c r="L57" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="58" spans="2:17">
+      <c r="B58" t="s">
+        <v>263</v>
+      </c>
+      <c r="C58" t="s">
+        <v>262</v>
+      </c>
+      <c r="D58" t="s">
+        <v>264</v>
+      </c>
+      <c r="K58" t="s">
+        <v>54</v>
+      </c>
+      <c r="L58" t="s">
+        <v>36</v>
+      </c>
+      <c r="M58" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="59" spans="2:17">
+      <c r="B59" t="s">
+        <v>266</v>
+      </c>
+      <c r="C59" t="s">
+        <v>265</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="G59" t="s">
+        <v>268</v>
+      </c>
+      <c r="H59" t="s">
+        <v>269</v>
+      </c>
+      <c r="K59" t="s">
+        <v>54</v>
+      </c>
+      <c r="L59" t="s">
+        <v>27</v>
+      </c>
+      <c r="N59" t="s">
+        <v>35</v>
+      </c>
+      <c r="P59" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="60" spans="2:17">
+      <c r="B60" t="s">
+        <v>271</v>
+      </c>
+      <c r="C60" t="s">
+        <v>270</v>
+      </c>
+      <c r="D60" t="s">
+        <v>192</v>
+      </c>
+      <c r="K60" t="s">
+        <v>54</v>
+      </c>
+      <c r="L60" t="s">
+        <v>36</v>
+      </c>
+      <c r="M60" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="61" spans="2:17">
+      <c r="B61" t="s">
+        <v>273</v>
+      </c>
+      <c r="C61" t="s">
+        <v>272</v>
+      </c>
+      <c r="D61" t="s">
+        <v>192</v>
+      </c>
+      <c r="K61" t="s">
+        <v>54</v>
+      </c>
+      <c r="L61" t="s">
+        <v>36</v>
+      </c>
+      <c r="M61" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="62" spans="2:17">
+      <c r="B62" t="s">
+        <v>275</v>
+      </c>
+      <c r="C62" t="s">
+        <v>274</v>
+      </c>
+      <c r="D62" t="s">
+        <v>60</v>
+      </c>
+      <c r="K62" t="s">
+        <v>54</v>
+      </c>
+      <c r="L62" t="s">
+        <v>36</v>
+      </c>
+      <c r="M62" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="63" spans="2:17">
+      <c r="B63" t="s">
+        <v>277</v>
+      </c>
+      <c r="C63" t="s">
+        <v>276</v>
+      </c>
+      <c r="F63" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="G63" t="s">
+        <v>279</v>
+      </c>
+      <c r="H63" t="s">
+        <v>280</v>
+      </c>
+      <c r="K63" t="s">
+        <v>54</v>
+      </c>
+      <c r="L63" t="s">
+        <v>27</v>
+      </c>
+      <c r="N63" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="64" spans="2:17">
+      <c r="B64" t="s">
+        <v>282</v>
+      </c>
+      <c r="C64" t="s">
+        <v>281</v>
+      </c>
+      <c r="K64" t="s">
+        <v>23</v>
+      </c>
+      <c r="L64" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19">
+      <c r="B65" t="s">
+        <v>284</v>
+      </c>
+      <c r="C65" t="s">
+        <v>283</v>
+      </c>
+      <c r="D65" t="s">
+        <v>285</v>
+      </c>
+      <c r="K65" t="s">
+        <v>54</v>
+      </c>
+      <c r="L65" t="s">
+        <v>36</v>
+      </c>
+      <c r="M65" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19">
+      <c r="B66" t="s">
+        <v>287</v>
+      </c>
+      <c r="C66" t="s">
+        <v>286</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="G66" t="s">
+        <v>289</v>
+      </c>
+      <c r="H66" t="s">
+        <v>290</v>
+      </c>
+      <c r="K66" t="s">
+        <v>54</v>
+      </c>
+      <c r="L66" t="s">
+        <v>27</v>
+      </c>
+      <c r="N66" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19">
+      <c r="B67" t="s">
+        <v>292</v>
+      </c>
+      <c r="C67" t="s">
+        <v>291</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="G67" t="s">
+        <v>294</v>
+      </c>
+      <c r="H67" t="s">
+        <v>295</v>
+      </c>
+      <c r="K67" t="s">
+        <v>54</v>
+      </c>
+      <c r="L67" t="s">
+        <v>27</v>
+      </c>
+      <c r="N67" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="68" spans="2:19">
+      <c r="B68" t="s">
+        <v>297</v>
+      </c>
+      <c r="C68" t="s">
+        <v>296</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="G68" t="s">
+        <v>299</v>
+      </c>
+      <c r="H68" t="s">
+        <v>298</v>
+      </c>
+      <c r="K68" t="s">
+        <v>54</v>
+      </c>
+      <c r="L68" t="s">
+        <v>27</v>
+      </c>
+      <c r="N68" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19">
+      <c r="B69" t="s">
+        <v>301</v>
+      </c>
+      <c r="C69" t="s">
+        <v>300</v>
+      </c>
+      <c r="D69" t="s">
+        <v>285</v>
+      </c>
       <c r="J69" s="1"/>
-    </row>
-    <row r="77" spans="2:10">
-      <c r="B77" s="1"/>
+      <c r="K69" t="s">
+        <v>54</v>
+      </c>
+      <c r="L69" t="s">
+        <v>36</v>
+      </c>
+      <c r="M69" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19">
+      <c r="B70" t="s">
+        <v>303</v>
+      </c>
+      <c r="C70" t="s">
+        <v>302</v>
+      </c>
+      <c r="K70" t="s">
+        <v>54</v>
+      </c>
+      <c r="L70" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19">
+      <c r="B71" t="s">
+        <v>305</v>
+      </c>
+      <c r="C71" t="s">
+        <v>304</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="G71" t="s">
+        <v>307</v>
+      </c>
+      <c r="H71" t="s">
+        <v>306</v>
+      </c>
+      <c r="J71" t="s">
+        <v>308</v>
+      </c>
+      <c r="K71" t="s">
+        <v>23</v>
+      </c>
+      <c r="L71" t="s">
+        <v>27</v>
+      </c>
+      <c r="N71" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19">
+      <c r="B72" t="s">
+        <v>310</v>
+      </c>
+      <c r="C72" t="s">
+        <v>309</v>
+      </c>
+      <c r="K72" t="s">
+        <v>23</v>
+      </c>
+      <c r="L72" t="s">
+        <v>33</v>
+      </c>
+      <c r="S72" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19">
+      <c r="B73" t="s">
+        <v>312</v>
+      </c>
+      <c r="C73" t="s">
+        <v>311</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="G73" t="s">
+        <v>314</v>
+      </c>
+      <c r="H73" t="s">
+        <v>313</v>
+      </c>
+      <c r="J73" t="s">
+        <v>315</v>
+      </c>
+      <c r="K73" t="s">
+        <v>23</v>
+      </c>
+      <c r="L73" t="s">
+        <v>27</v>
+      </c>
+      <c r="N73" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>35</v>
+      </c>
+      <c r="S73" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19">
+      <c r="B74" t="s">
+        <v>319</v>
+      </c>
+      <c r="C74" t="s">
+        <v>318</v>
+      </c>
+      <c r="K74" t="s">
+        <v>23</v>
+      </c>
+      <c r="L74" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19">
+      <c r="B75" t="s">
+        <v>321</v>
+      </c>
+      <c r="C75" t="s">
+        <v>320</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="G75" t="s">
+        <v>323</v>
+      </c>
+      <c r="H75" t="s">
+        <v>324</v>
+      </c>
+      <c r="J75" t="s">
+        <v>325</v>
+      </c>
+      <c r="K75" t="s">
+        <v>23</v>
+      </c>
+      <c r="L75" t="s">
+        <v>27</v>
+      </c>
+      <c r="N75" t="s">
+        <v>35</v>
+      </c>
+      <c r="P75" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19">
+      <c r="B76" t="s">
+        <v>328</v>
+      </c>
+      <c r="C76" t="s">
+        <v>327</v>
+      </c>
+      <c r="K76" t="s">
+        <v>54</v>
+      </c>
+      <c r="L76" t="s">
+        <v>36</v>
+      </c>
+      <c r="M76" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19">
+      <c r="B77" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C77" t="s">
+        <v>329</v>
+      </c>
+      <c r="F77" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="G77" t="s">
+        <v>332</v>
+      </c>
+      <c r="H77" t="s">
+        <v>333</v>
+      </c>
+      <c r="K77" t="s">
+        <v>23</v>
+      </c>
+      <c r="L77" t="s">
+        <v>27</v>
+      </c>
+      <c r="N77" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="78" spans="2:19">
+      <c r="B78" t="s">
+        <v>335</v>
+      </c>
+      <c r="C78" t="s">
+        <v>334</v>
+      </c>
+      <c r="K78" t="s">
+        <v>54</v>
+      </c>
+      <c r="L78" t="s">
+        <v>36</v>
+      </c>
+      <c r="M78" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19">
+      <c r="B79" t="s">
+        <v>337</v>
+      </c>
+      <c r="C79" t="s">
+        <v>336</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="G79" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="H79" t="s">
+        <v>338</v>
+      </c>
+      <c r="K79" t="s">
+        <v>23</v>
+      </c>
+      <c r="L79" t="s">
+        <v>27</v>
+      </c>
+      <c r="N79" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="80" spans="2:19">
+      <c r="B80" t="s">
+        <v>341</v>
+      </c>
+      <c r="C80" t="s">
+        <v>340</v>
+      </c>
+      <c r="K80" t="s">
+        <v>54</v>
+      </c>
+      <c r="L80" t="s">
+        <v>36</v>
+      </c>
+      <c r="M80" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="81" spans="2:17">
+      <c r="B81" t="s">
+        <v>343</v>
+      </c>
+      <c r="C81" t="s">
+        <v>342</v>
+      </c>
+      <c r="F81" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="G81" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="H81" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="K81" t="s">
+        <v>23</v>
+      </c>
+      <c r="L81" t="s">
+        <v>27</v>
+      </c>
+      <c r="N81" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="82" spans="2:17">
+      <c r="B82" t="s">
+        <v>348</v>
+      </c>
+      <c r="C82" t="s">
+        <v>347</v>
+      </c>
+      <c r="K82" t="s">
+        <v>23</v>
+      </c>
+      <c r="L82" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="83" spans="2:17">
+      <c r="B83" t="s">
+        <v>350</v>
+      </c>
+      <c r="C83" t="s">
+        <v>349</v>
+      </c>
+      <c r="F83" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="G83" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="H83" t="s">
+        <v>353</v>
+      </c>
+      <c r="K83" t="s">
+        <v>54</v>
+      </c>
+      <c r="L83" t="s">
+        <v>27</v>
+      </c>
+      <c r="N83" t="s">
+        <v>35</v>
+      </c>
+      <c r="P83" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="84" spans="2:17">
+      <c r="B84" t="s">
+        <v>356</v>
+      </c>
+      <c r="C84" t="s">
+        <v>355</v>
+      </c>
+      <c r="K84" t="s">
+        <v>23</v>
+      </c>
+      <c r="L84" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="85" spans="2:17">
+      <c r="B85" t="s">
+        <v>358</v>
+      </c>
+      <c r="C85" t="s">
+        <v>357</v>
+      </c>
+      <c r="F85" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="G85" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="H85" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="K85" t="s">
+        <v>54</v>
+      </c>
+      <c r="L85" t="s">
+        <v>27</v>
+      </c>
+      <c r="N85" t="s">
+        <v>35</v>
+      </c>
+      <c r="P85" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="98" spans="10:10">
       <c r="J98" s="1"/>
@@ -2984,13 +4380,13 @@
           <x14:formula1>
             <xm:f>Sheet2!$O$2:$O$3</xm:f>
           </x14:formula1>
-          <xm:sqref>R1240:R1241 Q237:Q1670 P1671 N2:N235 N237:N1048576 Q1672:Q1048576 Q2:Q235</xm:sqref>
+          <xm:sqref>R1240:R1241 Q237:Q1670 P1671 N2:N235 N237:N1048576 Q1672:Q1048576 Q50:R50 Q2:Q49 Q51:Q235</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$F$2:$F$4</xm:f>
           </x14:formula1>
-          <xm:sqref>M2:M374 M376:M1048576</xm:sqref>
+          <xm:sqref>M376:M1048576 M2:M374</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
